--- a/medicine/Enfance/The_Wombles_(jeu_vidéo)/The_Wombles_(jeu_vidéo).xlsx
+++ b/medicine/Enfance/The_Wombles_(jeu_vidéo)/The_Wombles_(jeu_vidéo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The_Wombles_(jeu_vid%C3%A9o)</t>
+          <t>The_Wombles_(jeu_vidéo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Wombles est un jeu vidéo d'action-aventure édité par Alternative Software et sorti en 1990 sur Amstrad CPC, Commodore 64 et ZX Spectrum. Il s'inspire des Wombles, des personnages de littérature de jeunesse créés par Elisabeth Beresford (en).
 </t>
